--- a/Assignments/hw1/q1n/q1_2.2.xlsx
+++ b/Assignments/hw1/q1n/q1_2.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Aero_5830\Assignments\hw1\q1n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D3277E4-66EE-4311-83EF-7D60E8D9D45D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2950C491-D573-48EB-8071-77B778AC83D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{97D7A55D-4DA4-4660-B66B-F0068FDAD7E9}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{97D7A55D-4DA4-4660-B66B-F0068FDAD7E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="1617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="1618">
   <si>
     <t>2.2</t>
   </si>
@@ -4904,6 +4904,9 @@
   </si>
   <si>
     <t>t_n+1 - t_n</t>
+  </si>
+  <si>
+    <t>eps</t>
   </si>
 </sst>
 </file>
@@ -4946,7 +4949,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -4991,9 +4997,10 @@
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_3" connectionId="1" xr16:uid="{A6B9CD79-D33B-4228-B300-065073DCAD8F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="2">
-    <queryTableFields count="1">
+  <queryTableRefresh nextId="3" unboundColumnsRight="1">
+    <queryTableFields count="2">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
+      <queryTableField id="2" dataBound="0" tableColumnId="2"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -5003,7 +5010,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEBC0ECF-4605-4F52-A7AF-7EFEFE3951CB}" name="tl" displayName="tl" ref="B1:B540" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="B1:B540" xr:uid="{CC89C363-7642-41B1-B6BA-6B67CFA15B97}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{9B5743B3-337D-4723-8CF7-85D0E87DEFF5}" uniqueName="1" name="t_n" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{9B5743B3-337D-4723-8CF7-85D0E87DEFF5}" uniqueName="1" name="t_n" queryTableFieldId="1" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5013,17 +5020,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1AEAA376-0CD2-4ED4-BBD3-9E20040F01E1}" name="fl" displayName="fl" ref="C1:C540" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="C1:C540" xr:uid="{D9E540B9-3FDE-4285-ABEF-9F890A345E11}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4CB53044-2D1F-417B-9162-E10F9F2BB766}" uniqueName="1" name="f(t)" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{4CB53044-2D1F-417B-9162-E10F9F2BB766}" uniqueName="1" name="f(t)" queryTableFieldId="1" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FF0CA5B4-2400-404F-B8B1-5B145CBF1956}" name="dtl" displayName="dtl" ref="D1:D539" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="D1:D539" xr:uid="{8B47D37A-00D3-49A5-A36E-C83B66DB5AE3}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{04C153DA-1635-4B91-9740-33B32C719AFE}" uniqueName="1" name="t_n+1 - t_n" queryTableFieldId="1" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FF0CA5B4-2400-404F-B8B1-5B145CBF1956}" name="dtl" displayName="dtl" ref="D1:E539" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="D1:E539" xr:uid="{8B47D37A-00D3-49A5-A36E-C83B66DB5AE3}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{04C153DA-1635-4B91-9740-33B32C719AFE}" uniqueName="1" name="t_n+1 - t_n" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{5E8EAD42-823D-4D24-9466-B9E4EB489F7E}" uniqueName="2" name="eps" queryTableFieldId="2" dataDxfId="0">
+      <calculatedColumnFormula>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5326,10 +5336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434A6589-C9E0-4343-B599-6F8BE68A9826}">
-  <dimension ref="A1:D541"/>
+  <dimension ref="A1:E541"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E64" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5339,7 +5349,7 @@
     <col min="3" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1613</v>
       </c>
@@ -5352,8 +5362,11 @@
       <c r="D1" t="s">
         <v>1616</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5366,8 +5379,12 @@
       <c r="D2" s="1" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.78197736732826806</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5380,8 +5397,12 @@
       <c r="D3" s="1" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.73154476705160965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5394,8 +5415,12 @@
       <c r="D4" s="1" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50862189062417307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5408,8 +5433,12 @@
       <c r="D5" s="1" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50202052541779751</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5422,8 +5451,12 @@
       <c r="D6" s="1" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50049753498564009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5436,8 +5469,12 @@
       <c r="D7" s="1" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50012392048291465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5450,8 +5487,12 @@
       <c r="D8" s="1" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50003095134124398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5464,8 +5505,12 @@
       <c r="D9" s="1" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000773603930027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5478,8 +5523,12 @@
       <c r="D10" s="1" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000193389761804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5492,8 +5541,12 @@
       <c r="D11" s="1" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000048346739168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5506,8 +5559,12 @@
       <c r="D12" s="1" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000012086640888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5520,8 +5577,12 @@
       <c r="D13" s="1" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000003021657335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5534,8 +5595,12 @@
       <c r="D14" s="1" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000755414209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5548,8 +5613,12 @@
       <c r="D15" s="1" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000188853411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5562,8 +5631,12 @@
       <c r="D16" s="1" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000047213145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5576,8 +5649,12 @@
       <c r="D17" s="1" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000011803469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5590,8 +5667,12 @@
       <c r="D18" s="1" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000002950895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5604,8 +5685,12 @@
       <c r="D19" s="1" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5000000000073781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5618,8 +5703,12 @@
       <c r="D20" s="1" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5000000000018463</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5632,8 +5721,12 @@
       <c r="D21" s="1" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5000000000004603</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -5646,8 +5739,12 @@
       <c r="D22" s="1" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000011557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5660,8 +5757,12 @@
       <c r="D23" s="1" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000002909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -5674,8 +5775,12 @@
       <c r="D24" s="1" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000755</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -5688,8 +5793,12 @@
       <c r="D25" s="1" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5702,8 +5811,12 @@
       <c r="D26" s="1" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -5716,8 +5829,12 @@
       <c r="D27" s="1" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5730,8 +5847,12 @@
       <c r="D28" s="1" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5744,8 +5865,12 @@
       <c r="D29" s="1" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999867</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5758,8 +5883,12 @@
       <c r="D30" s="1" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5772,8 +5901,12 @@
       <c r="D31" s="1" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -5786,8 +5919,12 @@
       <c r="D32" s="1" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -5800,8 +5937,12 @@
       <c r="D33" s="1" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5814,8 +5955,12 @@
       <c r="D34" s="1" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5828,8 +5973,12 @@
       <c r="D35" s="1" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999911</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5842,8 +5991,12 @@
       <c r="D36" s="1" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999833</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5856,8 +6009,12 @@
       <c r="D37" s="1" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5870,8 +6027,12 @@
       <c r="D38" s="1" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5884,8 +6045,12 @@
       <c r="D39" s="1" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5898,8 +6063,12 @@
       <c r="D40" s="1" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000056</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5912,8 +6081,12 @@
       <c r="D41" s="1" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5926,8 +6099,12 @@
       <c r="D42" s="1" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5940,8 +6117,12 @@
       <c r="D43" s="1" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5954,8 +6135,12 @@
       <c r="D44" s="1" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5968,8 +6153,12 @@
       <c r="D45" s="1" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999911</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5982,8 +6171,12 @@
       <c r="D46" s="1" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999833</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5996,8 +6189,12 @@
       <c r="D47" s="1" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -6010,8 +6207,12 @@
       <c r="D48" s="1" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -6024,8 +6225,12 @@
       <c r="D49" s="1" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -6038,8 +6243,12 @@
       <c r="D50" s="1" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -6052,8 +6261,12 @@
       <c r="D51" s="1" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999944</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -6066,8 +6279,12 @@
       <c r="D52" s="1" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -6080,8 +6297,12 @@
       <c r="D53" s="1" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999767</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -6094,8 +6315,12 @@
       <c r="D54" s="1" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -6108,8 +6333,12 @@
       <c r="D55" s="1" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -6122,8 +6351,12 @@
       <c r="D56" s="1" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -6136,8 +6369,12 @@
       <c r="D57" s="1" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -6150,8 +6387,12 @@
       <c r="D58" s="1" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -6164,8 +6405,12 @@
       <c r="D59" s="1" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999856</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -6178,8 +6423,12 @@
       <c r="D60" s="1" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -6192,8 +6441,12 @@
       <c r="D61" s="1" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -6206,8 +6459,12 @@
       <c r="D62" s="1" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -6220,8 +6477,12 @@
       <c r="D63" s="1" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -6234,8 +6495,12 @@
       <c r="D64" s="1" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -6248,8 +6513,12 @@
       <c r="D65" s="1" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999911</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -6262,8 +6531,12 @@
       <c r="D66" s="1" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999811</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -6276,8 +6549,12 @@
       <c r="D67" s="1" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -6290,8 +6567,12 @@
       <c r="D68" s="1" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -6304,8 +6585,12 @@
       <c r="D69" s="1" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999856</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -6318,8 +6603,12 @@
       <c r="D70" s="1" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -6332,8 +6621,12 @@
       <c r="D71" s="1" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999944</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -6346,8 +6639,12 @@
       <c r="D72" s="1" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -6360,8 +6657,12 @@
       <c r="D73" s="1" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -6374,8 +6675,12 @@
       <c r="D74" s="1" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000089</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -6388,8 +6693,12 @@
       <c r="D75" s="1" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999911</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -6402,8 +6711,12 @@
       <c r="D76" s="1" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -6416,8 +6729,12 @@
       <c r="D77" s="1" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000067</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -6430,8 +6747,12 @@
       <c r="D78" s="1" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -6444,8 +6765,12 @@
       <c r="D79" s="1" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999845</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -6458,8 +6783,12 @@
       <c r="D80" s="1" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000244</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -6472,8 +6801,12 @@
       <c r="D81" s="1" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -6486,8 +6819,12 @@
       <c r="D82" s="1" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -6500,8 +6837,12 @@
       <c r="D83" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999756</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -6514,8 +6855,12 @@
       <c r="D84" s="1" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000189</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -6528,8 +6873,12 @@
       <c r="D85" s="1" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999911</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -6542,8 +6891,12 @@
       <c r="D86" s="1" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -6556,8 +6909,12 @@
       <c r="D87" s="1" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000155</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -6570,8 +6927,12 @@
       <c r="D88" s="1" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999922</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -6584,8 +6945,12 @@
       <c r="D89" s="1" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -6598,8 +6963,12 @@
       <c r="D90" s="1" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000056</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -6612,8 +6981,12 @@
       <c r="D91" s="1" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999944</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -6626,8 +6999,12 @@
       <c r="D92" s="1" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999867</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -6640,8 +7017,12 @@
       <c r="D93" s="1" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -6654,8 +7035,12 @@
       <c r="D94" s="1" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -6668,8 +7053,12 @@
       <c r="D95" s="1" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -6682,8 +7071,12 @@
       <c r="D96" s="1" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -6696,8 +7089,12 @@
       <c r="D97" s="1" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000078</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -6710,8 +7107,12 @@
       <c r="D98" s="1" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -6724,8 +7125,12 @@
       <c r="D99" s="1" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999845</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -6738,8 +7143,12 @@
       <c r="D100" s="1" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000189</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -6752,8 +7161,12 @@
       <c r="D101" s="1" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -6766,8 +7179,12 @@
       <c r="D102" s="1" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -6780,8 +7197,12 @@
       <c r="D103" s="1" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -6794,8 +7215,12 @@
       <c r="D104" s="1" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -6808,8 +7233,12 @@
       <c r="D105" s="1" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -6822,8 +7251,12 @@
       <c r="D106" s="1" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -6836,8 +7269,12 @@
       <c r="D107" s="1" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -6850,8 +7287,12 @@
       <c r="D108" s="1" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -6864,8 +7305,12 @@
       <c r="D109" s="1" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -6878,8 +7323,12 @@
       <c r="D110" s="1" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -6892,8 +7341,12 @@
       <c r="D111" s="1" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -6906,8 +7359,12 @@
       <c r="D112" s="1" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -6920,8 +7377,12 @@
       <c r="D113" s="1" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -6934,8 +7395,12 @@
       <c r="D114" s="1" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999956</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -6948,8 +7413,12 @@
       <c r="D115" s="1" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -6962,8 +7431,12 @@
       <c r="D116" s="1" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -6976,8 +7449,12 @@
       <c r="D117" s="1" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -6990,8 +7467,12 @@
       <c r="D118" s="1" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999911</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -7004,8 +7485,12 @@
       <c r="D119" s="1" t="s">
         <v>1193</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -7018,8 +7503,12 @@
       <c r="D120" s="1" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000133</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -7032,8 +7521,12 @@
       <c r="D121" s="1" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -7046,8 +7539,12 @@
       <c r="D122" s="1" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -7060,8 +7557,12 @@
       <c r="D123" s="1" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000056</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -7074,8 +7575,12 @@
       <c r="D124" s="1" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -7088,8 +7593,12 @@
       <c r="D125" s="1" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -7102,8 +7611,12 @@
       <c r="D126" s="1" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -7116,8 +7629,12 @@
       <c r="D127" s="1" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -7130,8 +7647,12 @@
       <c r="D128" s="1" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -7144,8 +7665,12 @@
       <c r="D129" s="1" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999822</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -7158,8 +7683,12 @@
       <c r="D130" s="1" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000144</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -7172,8 +7701,12 @@
       <c r="D131" s="1" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -7186,8 +7719,12 @@
       <c r="D132" s="1" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999856</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -7200,8 +7737,12 @@
       <c r="D133" s="1" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000222</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -7214,8 +7755,12 @@
       <c r="D134" s="1" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -7228,8 +7773,12 @@
       <c r="D135" s="1" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999889</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -7242,8 +7791,12 @@
       <c r="D136" s="1" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999789</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -7256,8 +7809,12 @@
       <c r="D137" s="1" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000344</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -7270,8 +7827,12 @@
       <c r="D138" s="1" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999911</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -7284,8 +7845,12 @@
       <c r="D139" s="1" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -7298,8 +7863,12 @@
       <c r="D140" s="1" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000067</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -7312,8 +7881,12 @@
       <c r="D141" s="1" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -7326,8 +7899,12 @@
       <c r="D142" s="1" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999867</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -7340,8 +7917,12 @@
       <c r="D143" s="1" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000167</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -7354,8 +7935,12 @@
       <c r="D144" s="1" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -7368,8 +7953,12 @@
       <c r="D145" s="1" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -7382,8 +7971,12 @@
       <c r="D146" s="1" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999778</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -7396,8 +7989,12 @@
       <c r="D147" s="1" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000178</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -7410,8 +8007,12 @@
       <c r="D148" s="1" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999911</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -7424,8 +8025,12 @@
       <c r="D149" s="1" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999822</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -7438,8 +8043,12 @@
       <c r="D150" s="1" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000278</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -7452,8 +8061,12 @@
       <c r="D151" s="1" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -7466,8 +8079,12 @@
       <c r="D152" s="1" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999856</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -7480,8 +8097,12 @@
       <c r="D153" s="1" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000233</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -7494,8 +8115,12 @@
       <c r="D154" s="1" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -7508,8 +8133,12 @@
       <c r="D155" s="1" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999878</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -7522,8 +8151,12 @@
       <c r="D156" s="1" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -7536,8 +8169,12 @@
       <c r="D157" s="1" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -7550,8 +8187,12 @@
       <c r="D158" s="1" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -7564,8 +8205,12 @@
       <c r="D159" s="1" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999811</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -7578,8 +8223,12 @@
       <c r="D160" s="1" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000222</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -7592,8 +8241,12 @@
       <c r="D161" s="1" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -7606,8 +8259,12 @@
       <c r="D162" s="1" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -7620,8 +8277,12 @@
       <c r="D163" s="1" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -7634,8 +8295,12 @@
       <c r="D164" s="1" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999944</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -7648,8 +8313,12 @@
       <c r="D165" s="1" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999878</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -7662,8 +8331,12 @@
       <c r="D166" s="1" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999767</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -7676,8 +8349,12 @@
       <c r="D167" s="1" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000377</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -7690,8 +8367,12 @@
       <c r="D168" s="1" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -7704,8 +8385,12 @@
       <c r="D169" s="1" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999822</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -7718,8 +8403,12 @@
       <c r="D170" s="1" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000003</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -7732,8 +8421,12 @@
       <c r="D171" s="1" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -7746,8 +8439,12 @@
       <c r="D172" s="1" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -7760,8 +8457,12 @@
       <c r="D173" s="1" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -7774,8 +8475,12 @@
       <c r="D174" s="1" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -7788,8 +8493,12 @@
       <c r="D175" s="1" t="s">
         <v>1249</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -7802,8 +8511,12 @@
       <c r="D176" s="1" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -7816,8 +8529,12 @@
       <c r="D177" s="1" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -7830,8 +8547,12 @@
       <c r="D178" s="1" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -7844,8 +8565,12 @@
       <c r="D179" s="1" t="s">
         <v>1253</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -7858,8 +8583,12 @@
       <c r="D180" s="1" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -7872,8 +8601,12 @@
       <c r="D181" s="1" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -7886,8 +8619,12 @@
       <c r="D182" s="1" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999845</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -7900,8 +8637,12 @@
       <c r="D183" s="1" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000122</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -7914,8 +8655,12 @@
       <c r="D184" s="1" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -7928,8 +8673,12 @@
       <c r="D185" s="1" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999878</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -7942,8 +8691,12 @@
       <c r="D186" s="1" t="s">
         <v>1260</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -7956,8 +8709,12 @@
       <c r="D187" s="1" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000002</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -7970,8 +8727,12 @@
       <c r="D188" s="1" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -7984,8 +8745,12 @@
       <c r="D189" s="1" t="s">
         <v>1263</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999998</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -7998,8 +8763,12 @@
       <c r="D190" s="1" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000322</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -8012,8 +8781,12 @@
       <c r="D191" s="1" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999922</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -8026,8 +8799,12 @@
       <c r="D192" s="1" t="s">
         <v>1266</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999833</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -8040,8 +8817,12 @@
       <c r="D193" s="1" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000255</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -8054,8 +8835,12 @@
       <c r="D194" s="1" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -8068,8 +8853,12 @@
       <c r="D195" s="1" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999878</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -8082,8 +8871,12 @@
       <c r="D196" s="1" t="s">
         <v>1270</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -8096,8 +8889,12 @@
       <c r="D197" s="1" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -8110,8 +8907,12 @@
       <c r="D198" s="1" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -8124,8 +8925,12 @@
       <c r="D199" s="1" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999998</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -8138,8 +8943,12 @@
       <c r="D200" s="1" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000244</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -8152,8 +8961,12 @@
       <c r="D201" s="1" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999922</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -8166,8 +8979,12 @@
       <c r="D202" s="1" t="s">
         <v>1276</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999833</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -8180,8 +8997,12 @@
       <c r="D203" s="1" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000255</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -8194,8 +9015,12 @@
       <c r="D204" s="1" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -8208,8 +9033,12 @@
       <c r="D205" s="1" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999878</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -8222,8 +9051,12 @@
       <c r="D206" s="1" t="s">
         <v>1280</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -8236,8 +9069,12 @@
       <c r="D207" s="1" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -8250,8 +9087,12 @@
       <c r="D208" s="1" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -8264,8 +9105,12 @@
       <c r="D209" s="1" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999998</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -8278,8 +9123,12 @@
       <c r="D210" s="1" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000322</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -8292,8 +9141,12 @@
       <c r="D211" s="1" t="s">
         <v>1285</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -8306,8 +9159,12 @@
       <c r="D212" s="1" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -8320,8 +9177,12 @@
       <c r="D213" s="1" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -8334,8 +9195,12 @@
       <c r="D214" s="1" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -8348,8 +9213,12 @@
       <c r="D215" s="1" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999867</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -8362,8 +9231,12 @@
       <c r="D216" s="1" t="s">
         <v>1290</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000167</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -8376,8 +9249,12 @@
       <c r="D217" s="1" t="s">
         <v>1291</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -8390,8 +9267,12 @@
       <c r="D218" s="1" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -8404,8 +9285,12 @@
       <c r="D219" s="1" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999789</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -8418,8 +9303,12 @@
       <c r="D220" s="1" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000244</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -8432,8 +9321,12 @@
       <c r="D221" s="1" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -8446,8 +9339,12 @@
       <c r="D222" s="1" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999833</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -8460,8 +9357,12 @@
       <c r="D223" s="1" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000133</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -8474,8 +9375,12 @@
       <c r="D224" s="1" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -8488,8 +9393,12 @@
       <c r="D225" s="1" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -8502,8 +9411,12 @@
       <c r="D226" s="1" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000056</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -8516,8 +9429,12 @@
       <c r="D227" s="1" t="s">
         <v>1301</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999944</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -8530,8 +9447,12 @@
       <c r="D228" s="1" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -8544,8 +9465,12 @@
       <c r="D229" s="1" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -8558,8 +9483,12 @@
       <c r="D230" s="1" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000167</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -8572,8 +9501,12 @@
       <c r="D231" s="1" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -8586,8 +9519,12 @@
       <c r="D232" s="1" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -8600,8 +9537,12 @@
       <c r="D233" s="1" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -8614,8 +9555,12 @@
       <c r="D234" s="1" t="s">
         <v>1308</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -8628,8 +9573,12 @@
       <c r="D235" s="1" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999867</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -8642,8 +9591,12 @@
       <c r="D236" s="1" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000211</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -8656,8 +9609,12 @@
       <c r="D237" s="1" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -8670,8 +9627,12 @@
       <c r="D238" s="1" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -8684,8 +9645,12 @@
       <c r="D239" s="1" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -8698,8 +9663,12 @@
       <c r="D240" s="1" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -8712,8 +9681,12 @@
       <c r="D241" s="1" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999911</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -8726,8 +9699,12 @@
       <c r="D242" s="1" t="s">
         <v>1316</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -8740,8 +9717,12 @@
       <c r="D243" s="1" t="s">
         <v>1317</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000078</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -8754,8 +9735,12 @@
       <c r="D244" s="1" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999922</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -8768,8 +9753,12 @@
       <c r="D245" s="1" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -8782,8 +9771,12 @@
       <c r="D246" s="1" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000067</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -8796,8 +9789,12 @@
       <c r="D247" s="1" t="s">
         <v>1321</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -8810,8 +9807,12 @@
       <c r="D248" s="1" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999878</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -8824,8 +9825,12 @@
       <c r="D249" s="1" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999778</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -8838,8 +9843,12 @@
       <c r="D250" s="1" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000366</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -8852,8 +9861,12 @@
       <c r="D251" s="1" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -8866,8 +9879,12 @@
       <c r="D252" s="1" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -8880,8 +9897,12 @@
       <c r="D253" s="1" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -8894,8 +9915,12 @@
       <c r="D254" s="1" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999922</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -8908,8 +9933,12 @@
       <c r="D255" s="1" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -8922,8 +9951,12 @@
       <c r="D256" s="1" t="s">
         <v>1330</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000056</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -8936,8 +9969,12 @@
       <c r="D257" s="1" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -8950,8 +9987,12 @@
       <c r="D258" s="1" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -8964,8 +10005,12 @@
       <c r="D259" s="1" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -8978,8 +10023,12 @@
       <c r="D260" s="1" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
@@ -8992,8 +10041,12 @@
       <c r="D261" s="1" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
@@ -9006,8 +10059,12 @@
       <c r="D262" s="1" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999822</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
@@ -9020,8 +10077,12 @@
       <c r="D263" s="1" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000222</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
@@ -9034,8 +10095,12 @@
       <c r="D264" s="1" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
@@ -9048,8 +10113,12 @@
       <c r="D265" s="1" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999845</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
@@ -9062,8 +10131,12 @@
       <c r="D266" s="1" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000122</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
@@ -9076,8 +10149,12 @@
       <c r="D267" s="1" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
@@ -9090,8 +10167,12 @@
       <c r="D268" s="1" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
@@ -9104,8 +10185,12 @@
       <c r="D269" s="1" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
@@ -9118,8 +10203,12 @@
       <c r="D270" s="1" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
@@ -9132,8 +10221,12 @@
       <c r="D271" s="1" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E271" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
@@ -9146,8 +10239,12 @@
       <c r="D272" s="1" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999811</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
@@ -9160,8 +10257,12 @@
       <c r="D273" s="1" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E273" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000222</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
@@ -9174,8 +10275,12 @@
       <c r="D274" s="1" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E274" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -9188,8 +10293,12 @@
       <c r="D275" s="1" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E275" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999845</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -9202,8 +10311,12 @@
       <c r="D276" s="1" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E276" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000178</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
@@ -9216,8 +10329,12 @@
       <c r="D277" s="1" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E277" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999944</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
@@ -9230,8 +10347,12 @@
       <c r="D278" s="1" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E278" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999878</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
@@ -9244,8 +10365,12 @@
       <c r="D279" s="1" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E279" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
@@ -9258,8 +10383,12 @@
       <c r="D280" s="1" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E280" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000189</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
@@ -9272,8 +10401,12 @@
       <c r="D281" s="1" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E281" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
@@ -9286,8 +10419,12 @@
       <c r="D282" s="1" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E282" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999811</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
@@ -9300,8 +10437,12 @@
       <c r="D283" s="1" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E283" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000155</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
@@ -9314,8 +10455,12 @@
       <c r="D284" s="1" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E284" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
@@ -9328,8 +10473,12 @@
       <c r="D285" s="1" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E285" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999845</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
@@ -9342,8 +10491,12 @@
       <c r="D286" s="1" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E286" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000189</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
@@ -9356,8 +10509,12 @@
       <c r="D287" s="1" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E287" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>
@@ -9370,8 +10527,12 @@
       <c r="D288" s="1" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>287</v>
       </c>
@@ -9384,8 +10545,12 @@
       <c r="D289" s="1" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999745</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>288</v>
       </c>
@@ -9398,8 +10563,12 @@
       <c r="D290" s="1" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E290" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000002</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>289</v>
       </c>
@@ -9412,8 +10581,12 @@
       <c r="D291" s="1" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E291" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>290</v>
       </c>
@@ -9426,8 +10599,12 @@
       <c r="D292" s="1" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E292" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>291</v>
       </c>
@@ -9440,8 +10617,12 @@
       <c r="D293" s="1" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E293" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000078</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>292</v>
       </c>
@@ -9454,8 +10635,12 @@
       <c r="D294" s="1" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E294" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999922</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>293</v>
       </c>
@@ -9468,8 +10653,12 @@
       <c r="D295" s="1" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E295" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>294</v>
       </c>
@@ -9482,8 +10671,12 @@
       <c r="D296" s="1" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E296" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000067</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>295</v>
       </c>
@@ -9496,8 +10689,12 @@
       <c r="D297" s="1" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E297" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>296</v>
       </c>
@@ -9510,8 +10707,12 @@
       <c r="D298" s="1" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E298" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>297</v>
       </c>
@@ -9524,8 +10725,12 @@
       <c r="D299" s="1" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E299" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>298</v>
       </c>
@@ -9538,8 +10743,12 @@
       <c r="D300" s="1" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E300" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999944</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>299</v>
       </c>
@@ -9552,8 +10761,12 @@
       <c r="D301" s="1" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E301" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>300</v>
       </c>
@@ -9566,8 +10779,12 @@
       <c r="D302" s="1" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E302" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>301</v>
       </c>
@@ -9580,8 +10797,12 @@
       <c r="D303" s="1" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E303" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000167</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>302</v>
       </c>
@@ -9594,8 +10815,12 @@
       <c r="D304" s="1" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E304" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>303</v>
       </c>
@@ -9608,8 +10833,12 @@
       <c r="D305" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E305" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999833</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>304</v>
       </c>
@@ -9622,8 +10851,12 @@
       <c r="D306" s="1" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E306" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000133</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>305</v>
       </c>
@@ -9636,8 +10869,12 @@
       <c r="D307" s="1" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E307" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>306</v>
       </c>
@@ -9650,8 +10887,12 @@
       <c r="D308" s="1" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E308" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999867</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>307</v>
       </c>
@@ -9664,8 +10905,12 @@
       <c r="D309" s="1" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E309" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000211</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>308</v>
       </c>
@@ -9678,8 +10923,12 @@
       <c r="D310" s="1" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E310" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>309</v>
       </c>
@@ -9692,8 +10941,12 @@
       <c r="D311" s="1" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E311" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>310</v>
       </c>
@@ -9706,8 +10959,12 @@
       <c r="D312" s="1" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E312" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>311</v>
       </c>
@@ -9720,8 +10977,12 @@
       <c r="D313" s="1" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E313" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>312</v>
       </c>
@@ -9734,8 +10995,12 @@
       <c r="D314" s="1" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E314" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999922</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>313</v>
       </c>
@@ -9748,8 +11013,12 @@
       <c r="D315" s="1" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E315" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>314</v>
       </c>
@@ -9762,8 +11031,12 @@
       <c r="D316" s="1" t="s">
         <v>1390</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E316" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000067</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>315</v>
       </c>
@@ -9776,8 +11049,12 @@
       <c r="D317" s="1" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E317" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>316</v>
       </c>
@@ -9790,8 +11067,12 @@
       <c r="D318" s="1" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E318" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>317</v>
       </c>
@@ -9804,8 +11085,12 @@
       <c r="D319" s="1" t="s">
         <v>1393</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E319" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000044</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>318</v>
       </c>
@@ -9818,8 +11103,12 @@
       <c r="D320" s="1" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E320" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999956</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>319</v>
       </c>
@@ -9832,8 +11121,12 @@
       <c r="D321" s="1" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E321" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>320</v>
       </c>
@@ -9846,8 +11139,12 @@
       <c r="D322" s="1" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E322" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999778</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>321</v>
       </c>
@@ -9860,8 +11157,12 @@
       <c r="D323" s="1" t="s">
         <v>1397</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E323" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000255</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>322</v>
       </c>
@@ -9874,8 +11175,12 @@
       <c r="D324" s="1" t="s">
         <v>1398</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E324" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>323</v>
       </c>
@@ -9888,8 +11193,12 @@
       <c r="D325" s="1" t="s">
         <v>1399</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E325" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>324</v>
       </c>
@@ -9902,8 +11211,12 @@
       <c r="D326" s="1" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E326" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>325</v>
       </c>
@@ -9916,8 +11229,12 @@
       <c r="D327" s="1" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E327" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>326</v>
       </c>
@@ -9930,8 +11247,12 @@
       <c r="D328" s="1" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E328" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999867</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>327</v>
       </c>
@@ -9944,8 +11265,12 @@
       <c r="D329" s="1" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E329" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000167</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>328</v>
       </c>
@@ -9958,8 +11283,12 @@
       <c r="D330" s="1" t="s">
         <v>1404</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E330" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>329</v>
       </c>
@@ -9972,8 +11301,12 @@
       <c r="D331" s="1" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E331" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999889</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>330</v>
       </c>
@@ -9986,8 +11319,12 @@
       <c r="D332" s="1" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E332" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999778</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>331</v>
       </c>
@@ -10000,8 +11337,12 @@
       <c r="D333" s="1" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E333" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000355</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>332</v>
       </c>
@@ -10014,8 +11355,12 @@
       <c r="D334" s="1" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E334" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999911</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>333</v>
       </c>
@@ -10028,8 +11373,12 @@
       <c r="D335" s="1" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E335" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999822</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>334</v>
       </c>
@@ -10042,8 +11391,12 @@
       <c r="D336" s="1" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E336" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000278</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>335</v>
       </c>
@@ -10056,8 +11409,12 @@
       <c r="D337" s="1" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E337" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>336</v>
       </c>
@@ -10070,8 +11427,12 @@
       <c r="D338" s="1" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E338" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999856</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>337</v>
       </c>
@@ -10084,8 +11445,12 @@
       <c r="D339" s="1" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E339" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000167</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>338</v>
       </c>
@@ -10098,8 +11463,12 @@
       <c r="D340" s="1" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E340" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>339</v>
       </c>
@@ -10112,8 +11481,12 @@
       <c r="D341" s="1" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E341" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999889</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>340</v>
       </c>
@@ -10126,8 +11499,12 @@
       <c r="D342" s="1" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E342" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>341</v>
       </c>
@@ -10140,8 +11517,12 @@
       <c r="D343" s="1" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E343" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000089</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>342</v>
       </c>
@@ -10154,8 +11535,12 @@
       <c r="D344" s="1" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E344" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>343</v>
       </c>
@@ -10168,8 +11553,12 @@
       <c r="D345" s="1" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E345" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999822</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>344</v>
       </c>
@@ -10182,8 +11571,12 @@
       <c r="D346" s="1" t="s">
         <v>1420</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E346" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000222</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>345</v>
       </c>
@@ -10196,8 +11589,12 @@
       <c r="D347" s="1" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E347" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>346</v>
       </c>
@@ -10210,8 +11607,12 @@
       <c r="D348" s="1" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E348" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999856</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>347</v>
       </c>
@@ -10224,8 +11625,12 @@
       <c r="D349" s="1" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E349" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000167</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>348</v>
       </c>
@@ -10238,8 +11643,12 @@
       <c r="D350" s="1" t="s">
         <v>1424</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E350" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>349</v>
       </c>
@@ -10252,8 +11661,12 @@
       <c r="D351" s="1" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E351" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>350</v>
       </c>
@@ -10266,8 +11679,12 @@
       <c r="D352" s="1" t="s">
         <v>1426</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E352" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>351</v>
       </c>
@@ -10280,8 +11697,12 @@
       <c r="D353" s="1" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E353" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>352</v>
       </c>
@@ -10294,8 +11715,12 @@
       <c r="D354" s="1" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E354" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>353</v>
       </c>
@@ -10308,8 +11733,12 @@
       <c r="D355" s="1" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E355" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>354</v>
       </c>
@@ -10322,8 +11751,12 @@
       <c r="D356" s="1" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E356" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>355</v>
       </c>
@@ -10336,8 +11769,12 @@
       <c r="D357" s="1" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E357" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>356</v>
       </c>
@@ -10350,8 +11787,12 @@
       <c r="D358" s="1" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E358" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>357</v>
       </c>
@@ -10364,8 +11805,12 @@
       <c r="D359" s="1" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E359" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>358</v>
       </c>
@@ -10378,8 +11823,12 @@
       <c r="D360" s="1" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E360" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>359</v>
       </c>
@@ -10392,8 +11841,12 @@
       <c r="D361" s="1" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E361" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999889</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>360</v>
       </c>
@@ -10406,8 +11859,12 @@
       <c r="D362" s="1" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E362" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>361</v>
       </c>
@@ -10420,8 +11877,12 @@
       <c r="D363" s="1" t="s">
         <v>1437</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E363" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000089</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>362</v>
       </c>
@@ -10434,8 +11895,12 @@
       <c r="D364" s="1" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E364" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999911</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>363</v>
       </c>
@@ -10448,8 +11913,12 @@
       <c r="D365" s="1" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E365" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999811</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>364</v>
       </c>
@@ -10462,8 +11931,12 @@
       <c r="D366" s="1" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E366" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000003</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>365</v>
       </c>
@@ -10476,8 +11949,12 @@
       <c r="D367" s="1" t="s">
         <v>1441</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E367" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>366</v>
       </c>
@@ -10490,8 +11967,12 @@
       <c r="D368" s="1" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E368" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999845</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>367</v>
       </c>
@@ -10504,8 +11985,12 @@
       <c r="D369" s="1" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E369" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000122</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>368</v>
       </c>
@@ -10518,8 +12003,12 @@
       <c r="D370" s="1" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E370" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>369</v>
       </c>
@@ -10532,8 +12021,12 @@
       <c r="D371" s="1" t="s">
         <v>1445</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E371" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999878</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>370</v>
       </c>
@@ -10546,8 +12039,12 @@
       <c r="D372" s="1" t="s">
         <v>1446</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E372" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999767</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>371</v>
       </c>
@@ -10560,8 +12057,12 @@
       <c r="D373" s="1" t="s">
         <v>1447</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E373" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000377</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>372</v>
       </c>
@@ -10574,8 +12075,12 @@
       <c r="D374" s="1" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E374" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>373</v>
       </c>
@@ -10588,8 +12093,12 @@
       <c r="D375" s="1" t="s">
         <v>1449</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E375" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999811</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>374</v>
       </c>
@@ -10602,8 +12111,12 @@
       <c r="D376" s="1" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E376" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000155</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>375</v>
       </c>
@@ -10616,8 +12129,12 @@
       <c r="D377" s="1" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E377" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>376</v>
       </c>
@@ -10630,8 +12147,12 @@
       <c r="D378" s="1" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E378" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999845</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>377</v>
       </c>
@@ -10644,8 +12165,12 @@
       <c r="D379" s="1" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E379" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000189</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>378</v>
       </c>
@@ -10658,8 +12183,12 @@
       <c r="D380" s="1" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E380" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>379</v>
       </c>
@@ -10672,8 +12201,12 @@
       <c r="D381" s="1" t="s">
         <v>1455</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E381" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>380</v>
       </c>
@@ -10686,8 +12219,12 @@
       <c r="D382" s="1" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E382" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>381</v>
       </c>
@@ -10700,8 +12237,12 @@
       <c r="D383" s="1" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E383" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>382</v>
       </c>
@@ -10714,8 +12255,12 @@
       <c r="D384" s="1" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E384" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999999</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>383</v>
       </c>
@@ -10728,8 +12273,12 @@
       <c r="D385" s="1" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E385" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999998</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>384</v>
       </c>
@@ -10742,8 +12291,12 @@
       <c r="D386" s="1" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E386" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000322</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>385</v>
       </c>
@@ -10756,8 +12309,12 @@
       <c r="D387" s="1" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E387" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999922</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>386</v>
       </c>
@@ -10770,8 +12327,12 @@
       <c r="D388" s="1" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E388" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999845</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>387</v>
       </c>
@@ -10784,8 +12345,12 @@
       <c r="D389" s="1" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E389" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000244</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>388</v>
       </c>
@@ -10798,8 +12363,12 @@
       <c r="D390" s="1" t="s">
         <v>1464</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E390" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999944</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>389</v>
       </c>
@@ -10812,8 +12381,12 @@
       <c r="D391" s="1" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E391" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>390</v>
       </c>
@@ -10826,8 +12399,12 @@
       <c r="D392" s="1" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E392" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000001</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>391</v>
       </c>
@@ -10840,8 +12417,12 @@
       <c r="D393" s="1" t="s">
         <v>1467</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E393" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999944</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>392</v>
       </c>
@@ -10854,8 +12435,12 @@
       <c r="D394" s="1" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E394" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999999</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>393</v>
       </c>
@@ -10868,8 +12453,12 @@
       <c r="D395" s="1" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E395" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>394</v>
       </c>
@@ -10882,8 +12471,12 @@
       <c r="D396" s="1" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E396" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000167</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>395</v>
       </c>
@@ -10896,8 +12489,12 @@
       <c r="D397" s="1" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E397" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>396</v>
       </c>
@@ -10910,8 +12507,12 @@
       <c r="D398" s="1" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E398" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999833</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>397</v>
       </c>
@@ -10924,8 +12525,12 @@
       <c r="D399" s="1" t="s">
         <v>1473</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E399" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000133</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>398</v>
       </c>
@@ -10938,8 +12543,12 @@
       <c r="D400" s="1" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E400" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>399</v>
       </c>
@@ -10952,8 +12561,12 @@
       <c r="D401" s="1" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E401" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999867</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>400</v>
       </c>
@@ -10966,8 +12579,12 @@
       <c r="D402" s="1" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E402" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000211</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>401</v>
       </c>
@@ -10980,8 +12597,12 @@
       <c r="D403" s="1" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E403" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999944</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>402</v>
       </c>
@@ -10994,8 +12615,12 @@
       <c r="D404" s="1" t="s">
         <v>1478</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E404" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999999</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>403</v>
       </c>
@@ -11008,8 +12633,12 @@
       <c r="D405" s="1" t="s">
         <v>1479</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E405" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999789</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>404</v>
       </c>
@@ -11022,8 +12651,12 @@
       <c r="D406" s="1" t="s">
         <v>1480</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E406" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000333</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>405</v>
       </c>
@@ -11036,8 +12669,12 @@
       <c r="D407" s="1" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E407" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>406</v>
       </c>
@@ -11050,8 +12687,12 @@
       <c r="D408" s="1" t="s">
         <v>1482</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E408" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999833</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>407</v>
       </c>
@@ -11064,8 +12705,12 @@
       <c r="D409" s="1" t="s">
         <v>1483</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E409" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000002</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>408</v>
       </c>
@@ -11078,8 +12723,12 @@
       <c r="D410" s="1" t="s">
         <v>1484</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E410" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>409</v>
       </c>
@@ -11092,8 +12741,12 @@
       <c r="D411" s="1" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E411" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999867</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>410</v>
       </c>
@@ -11106,8 +12759,12 @@
       <c r="D412" s="1" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E412" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000211</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>411</v>
       </c>
@@ -11120,8 +12777,12 @@
       <c r="D413" s="1" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E413" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>412</v>
       </c>
@@ -11134,8 +12795,12 @@
       <c r="D414" s="1" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E414" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>413</v>
       </c>
@@ -11148,8 +12813,12 @@
       <c r="D415" s="1" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E415" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>414</v>
       </c>
@@ -11162,8 +12831,12 @@
       <c r="D416" s="1" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E416" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>415</v>
       </c>
@@ -11176,8 +12849,12 @@
       <c r="D417" s="1" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E417" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999922</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>416</v>
       </c>
@@ -11190,8 +12867,12 @@
       <c r="D418" s="1" t="s">
         <v>1492</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E418" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>417</v>
       </c>
@@ -11204,8 +12885,12 @@
       <c r="D419" s="1" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E419" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000067</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>418</v>
       </c>
@@ -11218,8 +12903,12 @@
       <c r="D420" s="1" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E420" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>419</v>
       </c>
@@ -11232,8 +12921,12 @@
       <c r="D421" s="1" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E421" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>420</v>
       </c>
@@ -11246,8 +12939,12 @@
       <c r="D422" s="1" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E422" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000044</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>421</v>
       </c>
@@ -11260,8 +12957,12 @@
       <c r="D423" s="1" t="s">
         <v>1497</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E423" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>422</v>
       </c>
@@ -11274,8 +12975,12 @@
       <c r="D424" s="1" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E424" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>423</v>
       </c>
@@ -11288,8 +12993,12 @@
       <c r="D425" s="1" t="s">
         <v>1499</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E425" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999789</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>424</v>
       </c>
@@ -11302,8 +13011,12 @@
       <c r="D426" s="1" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E426" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000255</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>425</v>
       </c>
@@ -11316,8 +13029,12 @@
       <c r="D427" s="1" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E427" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>426</v>
       </c>
@@ -11330,8 +13047,12 @@
       <c r="D428" s="1" t="s">
         <v>1502</v>
       </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E428" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999833</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>427</v>
       </c>
@@ -11344,8 +13065,12 @@
       <c r="D429" s="1" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E429" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000133</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>428</v>
       </c>
@@ -11358,8 +13083,12 @@
       <c r="D430" s="1" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E430" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>429</v>
       </c>
@@ -11372,8 +13101,12 @@
       <c r="D431" s="1" t="s">
         <v>1505</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E431" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999867</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>430</v>
       </c>
@@ -11386,8 +13119,12 @@
       <c r="D432" s="1" t="s">
         <v>1506</v>
       </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E432" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000167</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>431</v>
       </c>
@@ -11400,8 +13137,12 @@
       <c r="D433" s="1" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E433" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999944</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>432</v>
       </c>
@@ -11414,8 +13155,12 @@
       <c r="D434" s="1" t="s">
         <v>1508</v>
       </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E434" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999889</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>433</v>
       </c>
@@ -11428,8 +13173,12 @@
       <c r="D435" s="1" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E435" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999778</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>434</v>
       </c>
@@ -11442,8 +13191,12 @@
       <c r="D436" s="1" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E436" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000355</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>435</v>
       </c>
@@ -11456,8 +13209,12 @@
       <c r="D437" s="1" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E437" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999911</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>436</v>
       </c>
@@ -11470,8 +13227,12 @@
       <c r="D438" s="1" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E438" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>437</v>
       </c>
@@ -11484,8 +13245,12 @@
       <c r="D439" s="1" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E439" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000067</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>438</v>
       </c>
@@ -11498,8 +13263,12 @@
       <c r="D440" s="1" t="s">
         <v>1514</v>
       </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E440" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>439</v>
       </c>
@@ -11512,8 +13281,12 @@
       <c r="D441" s="1" t="s">
         <v>1515</v>
       </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E441" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>440</v>
       </c>
@@ -11526,8 +13299,12 @@
       <c r="D442" s="1" t="s">
         <v>1516</v>
       </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E442" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000111</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>441</v>
       </c>
@@ -11540,8 +13317,12 @@
       <c r="D443" s="1" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E443" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999944</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>442</v>
       </c>
@@ -11554,8 +13335,12 @@
       <c r="D444" s="1" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E444" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999889</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>443</v>
       </c>
@@ -11568,8 +13353,12 @@
       <c r="D445" s="1" t="s">
         <v>1519</v>
       </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E445" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999767</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>444</v>
       </c>
@@ -11582,8 +13371,12 @@
       <c r="D446" s="1" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E446" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000366</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>445</v>
       </c>
@@ -11596,8 +13389,12 @@
       <c r="D447" s="1" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E447" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999911</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>446</v>
       </c>
@@ -11610,8 +13407,12 @@
       <c r="D448" s="1" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E448" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999811</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>447</v>
       </c>
@@ -11624,8 +13425,12 @@
       <c r="D449" s="1" t="s">
         <v>1523</v>
       </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E449" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000003</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>448</v>
       </c>
@@ -11638,8 +13443,12 @@
       <c r="D450" s="1" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E450" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999922</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>449</v>
       </c>
@@ -11652,8 +13461,12 @@
       <c r="D451" s="1" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E451" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999856</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>450</v>
       </c>
@@ -11666,8 +13479,12 @@
       <c r="D452" s="1" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E452" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000233</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>451</v>
       </c>
@@ -11680,8 +13497,12 @@
       <c r="D453" s="1" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E453" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>452</v>
       </c>
@@ -11694,8 +13515,12 @@
       <c r="D454" s="1" t="s">
         <v>1528</v>
       </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E454" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>453</v>
       </c>
@@ -11708,8 +13533,12 @@
       <c r="D455" s="1" t="s">
         <v>1529</v>
       </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E455" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>454</v>
       </c>
@@ -11722,8 +13551,12 @@
       <c r="D456" s="1" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E456" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>455</v>
       </c>
@@ -11736,8 +13569,12 @@
       <c r="D457" s="1" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E457" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>456</v>
       </c>
@@ -11750,8 +13587,12 @@
       <c r="D458" s="1" t="s">
         <v>1532</v>
       </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E458" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>457</v>
       </c>
@@ -11764,8 +13605,12 @@
       <c r="D459" s="1" t="s">
         <v>1533</v>
       </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E459" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>458</v>
       </c>
@@ -11778,8 +13623,12 @@
       <c r="D460" s="1" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E460" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>459</v>
       </c>
@@ -11792,8 +13641,12 @@
       <c r="D461" s="1" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E461" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>460</v>
       </c>
@@ -11806,8 +13659,12 @@
       <c r="D462" s="1" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E462" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>461</v>
       </c>
@@ -11820,8 +13677,12 @@
       <c r="D463" s="1" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E463" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>462</v>
       </c>
@@ -11834,8 +13695,12 @@
       <c r="D464" s="1" t="s">
         <v>1538</v>
       </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E464" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>463</v>
       </c>
@@ -11848,8 +13713,12 @@
       <c r="D465" s="1" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E465" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>464</v>
       </c>
@@ -11862,8 +13731,12 @@
       <c r="D466" s="1" t="s">
         <v>1540</v>
       </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E466" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>465</v>
       </c>
@@ -11876,8 +13749,12 @@
       <c r="D467" s="1" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E467" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999999</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>466</v>
       </c>
@@ -11890,8 +13767,12 @@
       <c r="D468" s="1" t="s">
         <v>1542</v>
       </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E468" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999811</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>467</v>
       </c>
@@ -11904,8 +13785,12 @@
       <c r="D469" s="1" t="s">
         <v>1543</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E469" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000233</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>468</v>
       </c>
@@ -11918,8 +13803,12 @@
       <c r="D470" s="1" t="s">
         <v>1544</v>
       </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E470" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999922</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>469</v>
       </c>
@@ -11932,8 +13821,12 @@
       <c r="D471" s="1" t="s">
         <v>1545</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E471" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>470</v>
       </c>
@@ -11946,8 +13839,12 @@
       <c r="D472" s="1" t="s">
         <v>1546</v>
       </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E472" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000122</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>471</v>
       </c>
@@ -11960,8 +13857,12 @@
       <c r="D473" s="1" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E473" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>472</v>
       </c>
@@ -11974,8 +13875,12 @@
       <c r="D474" s="1" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E474" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>473</v>
       </c>
@@ -11988,8 +13893,12 @@
       <c r="D475" s="1" t="s">
         <v>1549</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E475" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>474</v>
       </c>
@@ -12002,8 +13911,12 @@
       <c r="D476" s="1" t="s">
         <v>1550</v>
       </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E476" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>475</v>
       </c>
@@ -12016,8 +13929,12 @@
       <c r="D477" s="1" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E477" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999999</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>476</v>
       </c>
@@ -12030,8 +13947,12 @@
       <c r="D478" s="1" t="s">
         <v>1552</v>
       </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E478" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>477</v>
       </c>
@@ -12044,8 +13965,12 @@
       <c r="D479" s="1" t="s">
         <v>1553</v>
       </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E479" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000078</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>478</v>
       </c>
@@ -12058,8 +13983,12 @@
       <c r="D480" s="1" t="s">
         <v>1554</v>
       </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E480" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>479</v>
       </c>
@@ -12072,8 +14001,12 @@
       <c r="D481" s="1" t="s">
         <v>1555</v>
       </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E481" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>480</v>
       </c>
@@ -12086,8 +14019,12 @@
       <c r="D482" s="1" t="s">
         <v>1556</v>
       </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E482" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>481</v>
       </c>
@@ -12100,8 +14037,12 @@
       <c r="D483" s="1" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E483" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>482</v>
       </c>
@@ -12114,8 +14055,12 @@
       <c r="D484" s="1" t="s">
         <v>1558</v>
       </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E484" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999878</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>483</v>
       </c>
@@ -12128,8 +14073,12 @@
       <c r="D485" s="1" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E485" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>484</v>
       </c>
@@ -12142,8 +14091,12 @@
       <c r="D486" s="1" t="s">
         <v>1560</v>
       </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E486" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.500000000000001</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>485</v>
       </c>
@@ -12156,8 +14109,12 @@
       <c r="D487" s="1" t="s">
         <v>1561</v>
       </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E487" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>486</v>
       </c>
@@ -12170,8 +14127,12 @@
       <c r="D488" s="1" t="s">
         <v>1562</v>
       </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E488" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999998</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>487</v>
       </c>
@@ -12184,8 +14145,12 @@
       <c r="D489" s="1" t="s">
         <v>1563</v>
       </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E489" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000233</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>488</v>
       </c>
@@ -12198,8 +14163,12 @@
       <c r="D490" s="1" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E490" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999922</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>489</v>
       </c>
@@ -12212,8 +14181,12 @@
       <c r="D491" s="1" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E491" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999845</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>490</v>
       </c>
@@ -12226,8 +14199,12 @@
       <c r="D492" s="1" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E492" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000255</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>491</v>
       </c>
@@ -12240,8 +14217,12 @@
       <c r="D493" s="1" t="s">
         <v>1567</v>
       </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E493" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999933</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>492</v>
       </c>
@@ -12254,8 +14235,12 @@
       <c r="D494" s="1" t="s">
         <v>1568</v>
       </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E494" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>493</v>
       </c>
@@ -12268,8 +14253,12 @@
       <c r="D495" s="1" t="s">
         <v>1569</v>
       </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E495" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000056</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>494</v>
       </c>
@@ -12282,8 +14271,12 @@
       <c r="D496" s="1" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E496" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999944</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>495</v>
       </c>
@@ -12296,8 +14289,12 @@
       <c r="D497" s="1" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E497" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499999999999999</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>496</v>
       </c>
@@ -12310,8 +14307,12 @@
       <c r="D498" s="1" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E498" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>497</v>
       </c>
@@ -12324,8 +14325,12 @@
       <c r="D499" s="1" t="s">
         <v>1573</v>
       </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E499" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000167</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>498</v>
       </c>
@@ -12338,8 +14343,12 @@
       <c r="D500" s="1" t="s">
         <v>1574</v>
       </c>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E500" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>499</v>
       </c>
@@ -12352,8 +14361,12 @@
       <c r="D501" s="1" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E501" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>500</v>
       </c>
@@ -12366,8 +14379,12 @@
       <c r="D502" s="1" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E502" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>501</v>
       </c>
@@ -12380,8 +14397,12 @@
       <c r="D503" s="1" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E503" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>502</v>
       </c>
@@ -12394,8 +14415,12 @@
       <c r="D504" s="1" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E504" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>503</v>
       </c>
@@ -12408,8 +14433,12 @@
       <c r="D505" s="1" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E505" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>504</v>
       </c>
@@ -12422,8 +14451,12 @@
       <c r="D506" s="1" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E506" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>505</v>
       </c>
@@ -12436,8 +14469,12 @@
       <c r="D507" s="1" t="s">
         <v>1581</v>
       </c>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E507" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999889</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>506</v>
       </c>
@@ -12450,8 +14487,12 @@
       <c r="D508" s="1" t="s">
         <v>1582</v>
       </c>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E508" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>507</v>
       </c>
@@ -12464,8 +14505,12 @@
       <c r="D509" s="1" t="s">
         <v>1583</v>
       </c>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E509" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000089</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>508</v>
       </c>
@@ -12478,8 +14523,12 @@
       <c r="D510" s="1" t="s">
         <v>1584</v>
       </c>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E510" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999911</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>509</v>
       </c>
@@ -12492,8 +14541,12 @@
       <c r="D511" s="1" t="s">
         <v>1585</v>
       </c>
-    </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E511" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>510</v>
       </c>
@@ -12506,8 +14559,12 @@
       <c r="D512" s="1" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E512" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000067</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>511</v>
       </c>
@@ -12520,8 +14577,12 @@
       <c r="D513" s="1" t="s">
         <v>1587</v>
       </c>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E513" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>512</v>
       </c>
@@ -12534,8 +14595,12 @@
       <c r="D514" s="1" t="s">
         <v>1588</v>
       </c>
-    </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E514" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999867</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>513</v>
       </c>
@@ -12548,8 +14613,12 @@
       <c r="D515" s="1" t="s">
         <v>1589</v>
       </c>
-    </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E515" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000000322</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>514</v>
       </c>
@@ -12562,8 +14631,12 @@
       <c r="D516" s="1" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E516" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999999734</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>515</v>
       </c>
@@ -12576,8 +14649,12 @@
       <c r="D517" s="1" t="s">
         <v>1591</v>
       </c>
-    </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E517" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999999996386</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>516</v>
       </c>
@@ -12590,8 +14667,12 @@
       <c r="D518" s="1" t="s">
         <v>1592</v>
       </c>
-    </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E518" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>517</v>
       </c>
@@ -12604,8 +14685,12 @@
       <c r="D519" s="1" t="s">
         <v>1593</v>
       </c>
-    </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E519" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5000000000004593</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>518</v>
       </c>
@@ -12618,8 +14703,12 @@
       <c r="D520" s="1" t="s">
         <v>1594</v>
       </c>
-    </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E520" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000000137457</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>519</v>
       </c>
@@ -12632,8 +14721,12 @@
       <c r="D521" s="1" t="s">
         <v>1595</v>
       </c>
-    </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E521" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000001130185</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>520</v>
       </c>
@@ -12646,8 +14739,12 @@
       <c r="D522" s="1" t="s">
         <v>1596</v>
       </c>
-    </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E522" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000003390799</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>521</v>
       </c>
@@ -12660,8 +14757,12 @@
       <c r="D523" s="1" t="s">
         <v>1597</v>
       </c>
-    </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E523" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999998690137</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>522</v>
       </c>
@@ -12674,8 +14775,12 @@
       <c r="D524" s="1" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E524" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000000041998061</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>523</v>
       </c>
@@ -12688,8 +14793,12 @@
       <c r="D525" s="1" t="s">
         <v>1599</v>
       </c>
-    </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E525" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999999758572311</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>524</v>
       </c>
@@ -12702,8 +14811,12 @@
       <c r="D526" s="1" t="s">
         <v>1600</v>
       </c>
-    </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E526" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.49999998540872959</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>525</v>
       </c>
@@ -12716,8 +14829,12 @@
       <c r="D527" s="1" t="s">
         <v>1601</v>
       </c>
-    </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E527" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50000001501370461</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>526</v>
       </c>
@@ -12730,8 +14847,12 @@
       <c r="D528" s="1" t="s">
         <v>1602</v>
       </c>
-    </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E528" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5000000450411155</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>527</v>
       </c>
@@ -12744,8 +14865,12 @@
       <c r="D529" s="1" t="s">
         <v>1603</v>
       </c>
-    </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E529" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5000006054235806</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>528</v>
       </c>
@@ -12758,8 +14883,12 @@
       <c r="D530" s="1" t="s">
         <v>1604</v>
       </c>
-    </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E530" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.5000018162744011</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>529</v>
       </c>
@@ -12772,8 +14901,12 @@
       <c r="D531" s="1" t="s">
         <v>1605</v>
       </c>
-    </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E531" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50001297373239129</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>530</v>
       </c>
@@ -12786,8 +14919,12 @@
       <c r="D532" s="1" t="s">
         <v>1606</v>
       </c>
-    </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E532" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50003892288041296</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>531</v>
       </c>
@@ -12800,8 +14937,12 @@
       <c r="D533" s="1" t="s">
         <v>1607</v>
       </c>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E533" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.499996360777196</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>532</v>
       </c>
@@ -12814,8 +14955,12 @@
       <c r="D534" s="1" t="s">
         <v>1608</v>
       </c>
-    </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E534" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50095245256511522</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>533</v>
       </c>
@@ -12828,8 +14973,12 @@
       <c r="D535" s="1" t="s">
         <v>1609</v>
       </c>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E535" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50286645360653326</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>534</v>
       </c>
@@ -12842,8 +14991,12 @@
       <c r="D536" s="1" t="s">
         <v>1610</v>
       </c>
-    </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E536" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50085631088648386</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>535</v>
       </c>
@@ -12856,8 +15009,12 @@
       <c r="D537" s="1" t="s">
         <v>1611</v>
       </c>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E537" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50257628296294687</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>536</v>
       </c>
@@ -12870,8 +15027,12 @@
       <c r="D538" s="1" t="s">
         <v>1612</v>
       </c>
-    </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E538" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0.50779570320278922</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>537</v>
       </c>
@@ -12884,8 +15045,12 @@
       <c r="D539" s="1" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E539" s="1">
+        <f>ABS(dtl[[#This Row],[t_n+1 - t_n]]/tl[[#This Row],[t_n]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>538</v>
       </c>
@@ -12896,17 +15061,18 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>539</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="3">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
